--- a/Service/任务记录文档/2015年10月26日至11月01日/服务组-梁艳飞-20151026.xlsx
+++ b/Service/任务记录文档/2015年10月26日至11月01日/服务组-梁艳飞-20151026.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="8430"/>
   </bookViews>
   <sheets>
     <sheet name="iTree任务发布表" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>iTree任务发布表</t>
   </si>
@@ -171,6 +171,16 @@
 2、根据反馈的情况，动态安排下阶段接口开发任务</t>
   </si>
   <si>
+    <t>初步的测试已完成，即交互数据方面可以得到满足。但出现乱码问题，有待解决</t>
+  </si>
+  <si>
+    <t>传出的参数出现中文乱码问题，但此问题只发生在浏览器预览上，使用专门的测试
+工具时没有该现象</t>
+  </si>
+  <si>
+    <t>在安卓端接受数据时同步编码集</t>
+  </si>
+  <si>
     <t>子任务发布表4</t>
   </si>
   <si>
@@ -198,12 +208,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -235,16 +245,353 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -254,29 +601,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -284,23 +631,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -356,24 +703,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -434,13 +1008,56 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -491,71 +1108,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -776,8 +1393,8 @@
   <sheetPr/>
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1171,7 +1788,9 @@
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="14"/>
+      <c r="B32" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
@@ -1181,7 +1800,9 @@
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="14"/>
+      <c r="B33" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
@@ -1191,11 +1812,13 @@
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="B34" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" ht="28" customHeight="1" spans="1:6">
       <c r="A35" s="2" t="s">
@@ -1212,7 +1835,7 @@
     <row r="36" ht="47" customHeight="1"/>
     <row r="37" ht="32" customHeight="1" spans="1:6">
       <c r="A37" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1241,7 +1864,7 @@
         <v>25</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
@@ -1253,7 +1876,7 @@
         <v>20</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
@@ -1305,7 +1928,7 @@
     <row r="46" ht="27" customHeight="1"/>
     <row r="47" ht="27" customHeight="1" spans="1:6">
       <c r="A47" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1334,7 +1957,7 @@
         <v>25</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
@@ -1346,7 +1969,7 @@
         <v>20</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -1564,7 +2187,7 @@
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1654,7 +2277,7 @@
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:6">
       <c r="A19" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>

--- a/Service/任务记录文档/2015年10月26日至11月01日/服务组-梁艳飞-20151026.xlsx
+++ b/Service/任务记录文档/2015年10月26日至11月01日/服务组-梁艳飞-20151026.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>iTree任务发布表</t>
   </si>
@@ -191,6 +191,15 @@
     <t>学习中文分词技术实现的思路，找到合适现阶段使用的开源项目，编写model进行测试。在条件允许的情况下，加入项目开发中</t>
   </si>
   <si>
+    <t>查看了部分开源项目，时间不充裕没有完成model的编写测试</t>
+  </si>
+  <si>
+    <t>没有完成model的编写测试</t>
+  </si>
+  <si>
+    <t>近期没有中文分词的需求，将该任务移植后期，时间待定</t>
+  </si>
+  <si>
     <t>子任务发布表5</t>
   </si>
   <si>
@@ -208,10 +217,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -247,16 +256,55 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,38 +324,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,6 +362,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -344,15 +377,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,23 +400,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,55 +415,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,127 +589,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,6 +714,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -752,6 +785,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -766,41 +810,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -809,10 +818,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -821,137 +830,137 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1006,6 +1015,9 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1391,13 +1403,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="15.625" style="7" customWidth="1"/>
@@ -1883,35 +1895,42 @@
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
     </row>
-    <row r="41" ht="42" customHeight="1" spans="1:6">
+    <row r="41" ht="42" customHeight="1" spans="1:9">
       <c r="A41" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="B41" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="I41" s="19"/>
     </row>
     <row r="42" ht="39" customHeight="1" spans="1:6">
       <c r="A42" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="B42" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" ht="38" customHeight="1" spans="1:6">
       <c r="A43" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="B43" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
     </row>
     <row r="44" ht="32" customHeight="1" spans="1:6">
       <c r="A44" s="2" t="s">
@@ -1928,7 +1947,7 @@
     <row r="46" ht="27" customHeight="1"/>
     <row r="47" ht="27" customHeight="1" spans="1:6">
       <c r="A47" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1957,7 +1976,7 @@
         <v>25</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
@@ -1969,7 +1988,7 @@
         <v>20</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -2187,7 +2206,7 @@
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:6">
       <c r="A10" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2277,7 +2296,7 @@
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:6">
       <c r="A19" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
